--- a/Akari/Excel/UIGroup.xlsx
+++ b/Akari/Excel/UIGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\2020.11.27-SAN\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\MyGithub\AkariARPG\Akari\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF8F016-C695-4961-80B6-36568E341C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D07548-32A4-461E-8391-47CAB87B7F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="7575" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24495" yWindow="2190" windowWidth="14280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
